--- a/data/dataset_incomplete.xlsx
+++ b/data/dataset_incomplete.xlsx
@@ -9249,7 +9249,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr"/>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -9280,7 +9284,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr"/>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -9311,7 +9319,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr"/>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -9342,7 +9354,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr"/>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -9373,7 +9389,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr"/>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -9404,7 +9424,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr"/>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -9435,7 +9459,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr"/>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -9466,7 +9494,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -9497,7 +9529,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr"/>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -9528,7 +9564,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr"/>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -9559,7 +9599,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr"/>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -9590,7 +9634,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr"/>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -9621,7 +9669,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr"/>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -9652,7 +9704,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr"/>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -9683,7 +9739,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr"/>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -9714,7 +9774,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr"/>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -9745,7 +9809,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr"/>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -9776,7 +9844,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr"/>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -9807,7 +9879,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr"/>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -9838,7 +9914,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -9869,7 +9949,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr"/>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -9900,7 +9984,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -9931,7 +10019,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -9962,7 +10054,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -9993,7 +10089,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -10024,7 +10124,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -10055,7 +10159,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -10086,7 +10194,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -10117,7 +10229,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -10148,7 +10264,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -10179,7 +10299,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -10210,7 +10334,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -10241,7 +10369,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -10272,7 +10404,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -10303,7 +10439,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -10334,7 +10474,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -10365,7 +10509,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -10396,7 +10544,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -10427,7 +10579,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -10458,7 +10614,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -10489,7 +10649,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -10520,7 +10684,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -10551,7 +10719,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -10582,7 +10754,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -10613,7 +10789,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -10644,7 +10824,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr"/>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -10675,7 +10859,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr"/>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -10706,7 +10894,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -10737,7 +10929,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr"/>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -10768,7 +10964,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr"/>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -10799,7 +10999,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr"/>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -10830,7 +11034,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr"/>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -10861,7 +11069,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -10892,7 +11104,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr"/>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -10923,7 +11139,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr"/>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -10954,7 +11174,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr"/>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -10985,7 +11209,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr"/>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -11016,7 +11244,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -11047,7 +11279,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr"/>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -11078,7 +11314,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr"/>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -11109,7 +11349,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr"/>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -11140,7 +11384,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr"/>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -11171,7 +11419,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr"/>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -11202,7 +11454,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -11233,7 +11489,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr"/>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -11264,7 +11524,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr"/>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -11295,7 +11559,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -11326,7 +11594,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G319" t="inlineStr"/>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -11357,7 +11629,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G320" t="inlineStr"/>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -11388,7 +11664,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr"/>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -11419,7 +11699,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr"/>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -11450,7 +11734,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr"/>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -11481,7 +11769,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr"/>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -11512,7 +11804,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr"/>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -11543,7 +11839,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr"/>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -11574,7 +11874,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr"/>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -11605,7 +11909,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -11636,7 +11944,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -11667,7 +11979,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -11698,7 +12014,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -11729,7 +12049,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr"/>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -11760,7 +12084,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr"/>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -11791,7 +12119,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -11822,7 +12154,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -11853,7 +12189,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -11884,7 +12224,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr"/>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -11915,7 +12259,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr"/>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -11946,7 +12294,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr"/>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -11977,7 +12329,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr"/>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -12008,7 +12364,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr"/>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -12039,7 +12399,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr"/>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -12070,7 +12434,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr"/>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -12101,7 +12469,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G344" t="inlineStr"/>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -12132,7 +12504,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr"/>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -12163,7 +12539,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr"/>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -12194,7 +12574,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr"/>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -12225,7 +12609,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr"/>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -12256,7 +12644,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr"/>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -12287,7 +12679,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G350" t="inlineStr"/>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -12318,7 +12714,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -12349,7 +12749,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -12380,7 +12784,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G353" t="inlineStr"/>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -12411,7 +12819,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -12442,7 +12854,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr"/>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -12473,7 +12889,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -12504,7 +12924,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G357" t="inlineStr"/>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -12535,7 +12959,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr"/>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -12566,7 +12994,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr"/>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -12597,7 +13029,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr"/>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -12628,7 +13064,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr"/>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -12659,7 +13099,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr"/>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -12690,7 +13134,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr"/>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -12721,7 +13169,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -12752,7 +13204,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr"/>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -12783,7 +13239,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G366" t="inlineStr"/>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -12814,7 +13274,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G367" t="inlineStr"/>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -12845,7 +13309,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G368" t="inlineStr"/>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -12876,7 +13344,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G369" t="inlineStr"/>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -12907,7 +13379,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G370" t="inlineStr"/>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -12938,7 +13414,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G371" t="inlineStr"/>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -12969,7 +13449,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G372" t="inlineStr"/>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -13000,7 +13484,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G373" t="inlineStr"/>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -13031,7 +13519,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G374" t="inlineStr"/>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -13062,7 +13554,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G375" t="inlineStr"/>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -13093,7 +13589,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G376" t="inlineStr"/>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -13124,7 +13624,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G377" t="inlineStr"/>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -13155,7 +13659,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G378" t="inlineStr"/>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -13186,7 +13694,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G379" t="inlineStr"/>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -13217,7 +13729,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G380" t="inlineStr"/>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -13248,7 +13764,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G381" t="inlineStr"/>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -13279,7 +13799,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G382" t="inlineStr"/>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -13310,7 +13834,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G383" t="inlineStr"/>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -13341,7 +13869,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G384" t="inlineStr"/>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -13372,7 +13904,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G385" t="inlineStr"/>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -13403,7 +13939,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G386" t="inlineStr"/>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -13434,7 +13974,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G387" t="inlineStr"/>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -13465,7 +14009,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G388" t="inlineStr"/>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -13496,7 +14044,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G389" t="inlineStr"/>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -13527,7 +14079,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G390" t="inlineStr"/>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -13558,7 +14114,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G391" t="inlineStr"/>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -13589,7 +14149,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G392" t="inlineStr"/>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -13620,7 +14184,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr"/>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -13651,7 +14219,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G394" t="inlineStr"/>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -13682,7 +14254,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G395" t="inlineStr"/>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -13713,7 +14289,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G396" t="inlineStr"/>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -13744,7 +14324,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G397" t="inlineStr"/>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -13775,7 +14359,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G398" t="inlineStr"/>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -13806,7 +14394,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G399" t="inlineStr"/>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -13837,7 +14429,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G400" t="inlineStr"/>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -13868,7 +14464,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G401" t="inlineStr"/>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -13899,7 +14499,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G402" t="inlineStr"/>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -13930,7 +14534,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G403" t="inlineStr"/>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -13961,7 +14569,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G404" t="inlineStr"/>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -13992,7 +14604,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G405" t="inlineStr"/>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -14023,7 +14639,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G406" t="inlineStr"/>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Breach</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -14054,7 +14674,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G407" t="inlineStr"/>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -14085,7 +14709,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G408" t="inlineStr"/>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -14116,7 +14744,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G409" t="inlineStr"/>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -14147,7 +14779,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G410" t="inlineStr"/>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -14178,7 +14814,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G411" t="inlineStr"/>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -14209,7 +14849,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -14240,7 +14884,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G413" t="inlineStr"/>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -14271,7 +14919,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G414" t="inlineStr"/>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -14302,7 +14954,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G415" t="inlineStr"/>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -14333,7 +14989,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G416" t="inlineStr"/>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -14364,7 +15024,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G417" t="inlineStr"/>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -14395,7 +15059,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G418" t="inlineStr"/>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -14426,7 +15094,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G419" t="inlineStr"/>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -14457,7 +15129,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G420" t="inlineStr"/>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -14488,7 +15164,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G421" t="inlineStr"/>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -14519,7 +15199,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G422" t="inlineStr"/>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -14550,7 +15234,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G423" t="inlineStr"/>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -14581,7 +15269,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G424" t="inlineStr"/>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -14612,7 +15304,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G425" t="inlineStr"/>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -14643,7 +15339,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G426" t="inlineStr"/>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -14674,7 +15374,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G427" t="inlineStr"/>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -14705,7 +15409,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G428" t="inlineStr"/>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -14736,7 +15444,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -14767,7 +15479,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -14798,7 +15514,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G431" t="inlineStr"/>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -14829,7 +15549,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G432" t="inlineStr"/>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -14860,7 +15584,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -14891,7 +15619,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -14922,7 +15654,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G435" t="inlineStr"/>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -14953,7 +15689,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G436" t="inlineStr"/>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -14984,7 +15724,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -15015,7 +15759,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G438" t="inlineStr"/>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -15046,7 +15794,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G439" t="inlineStr"/>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -15077,7 +15829,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G440" t="inlineStr"/>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -15108,7 +15864,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G441" t="inlineStr"/>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -15139,7 +15899,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G442" t="inlineStr"/>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -15170,7 +15934,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -15201,7 +15969,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Gekko</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -15232,7 +16004,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -15263,7 +16039,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G446" t="inlineStr"/>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -15294,7 +16074,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G447" t="inlineStr"/>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -15325,7 +16109,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -15356,7 +16144,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr"/>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -15387,7 +16179,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr"/>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -15418,7 +16214,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr"/>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -15449,7 +16249,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr"/>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -15480,7 +16284,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr"/>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -15511,7 +16319,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -15542,7 +16354,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G455" t="inlineStr"/>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -15573,7 +16389,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G456" t="inlineStr"/>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -15604,7 +16424,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G457" t="inlineStr"/>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -15635,7 +16459,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -15666,7 +16494,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -15697,7 +16529,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -15728,7 +16564,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -15759,7 +16599,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -15790,7 +16634,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -15821,7 +16669,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -15852,7 +16704,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -15883,7 +16739,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -15914,7 +16774,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -15945,7 +16809,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -15976,7 +16844,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G469" t="inlineStr"/>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -16007,7 +16879,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -16038,7 +16914,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -16069,7 +16949,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -16100,7 +16984,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -16131,7 +17019,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -16162,7 +17054,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G475" t="inlineStr"/>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -16193,7 +17089,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Fade</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -16224,7 +17124,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -16255,7 +17159,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -16286,7 +17194,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -16317,7 +17229,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -16348,7 +17264,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -16379,7 +17299,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -16410,7 +17334,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -16441,7 +17369,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -16472,7 +17404,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -16503,7 +17439,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -16534,7 +17474,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -16565,7 +17509,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -16596,7 +17544,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -16627,7 +17579,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -16658,7 +17614,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G491" t="inlineStr"/>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Skye</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -16689,7 +17649,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -16720,7 +17684,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -16751,7 +17719,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -16782,7 +17754,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -16813,7 +17789,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -16844,7 +17824,11 @@
           <t>SMGs</t>
         </is>
       </c>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -16875,7 +17859,11 @@
           <t>Shotguns</t>
         </is>
       </c>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -16906,7 +17894,11 @@
           <t>Rifles</t>
         </is>
       </c>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -16937,7 +17929,11 @@
           <t>Snipers</t>
         </is>
       </c>
-      <c r="G500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -16968,7 +17964,11 @@
           <t>Machine Guns</t>
         </is>
       </c>
-      <c r="G501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Sova</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
